--- a/amisbook用例/amisboook用例.xlsx
+++ b/amisbook用例/amisboook用例.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="转关单" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,30 +15,427 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>LocalAccount</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：必填(字符长度为3-128个字符)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填(用例编号不能重复，字符长度为3-128个字符)，不填将由系统自动生成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，请使用项目中存在的用户名或用户昵称，否则导入后处理者为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填(新建、设计中、测试中、完成，或其他自定义状态)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填(成功、失败、待核查、不可用、阻塞，或其他自定义结果)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填(示例：Level 1、L1或者1,不区分大小写,用例的级别包括0-4)未填写则自动设置为L0级别</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，请使用项目设置的迭代名称，否则导入后用例迭代为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，请使用项目设置的模块名称，否则导入后用例模块为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，导入时可只填写需求编号不填写需求名称</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，目录格式：一级目录/二级目录/三级目录/四级目录。提示：一级目录是根目录(与项目同名)下的第一级目录</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
+          </rPr>
+          <t>批注：选填，限500字</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>测试用例名称不可重复，不能短于两个字符，不能有特殊字符。
-[用例名称说明：长度必须在3到128个字符之间，只能包含中文、英文字母、数字和符号(空格，-_/|*&amp;`^~;；:：()（）{}=+,�￥……——’!@#$%.'+"'"+'[]?�！"、‘“”？—。，《》【】)] 
-用例编号为四位数或者五位数，不可重复</t>
-  </si>
-  <si>
-    <t>需求编号和需求名称不填</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="152">
+  <si>
+    <r>
+      <t>测试用例说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、收集全量且版本对应的测试用例
+2、抽测用例必须与功能清单对应，要求100%覆盖2级功能清单；
+3、抽测用例需要有详细的操作步骤说明与预期结果
+4、抽测用例需要有主要业务的端到端流程场景的测试用例
+5、标黄为必填项</t>
+    </r>
   </si>
   <si>
     <t>*用例名称</t>
   </si>
   <si>
-    <t>*用例编号</t>
-  </si>
-  <si>
-    <t>*处理人(导入用例时，处理人导入无效)</t>
-  </si>
-  <si>
-    <t>*用例状态</t>
-  </si>
-  <si>
-    <t>*用例级别</t>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>处理者</t>
+  </si>
+  <si>
+    <t>用例状态</t>
+  </si>
+  <si>
+    <t>用例结果</t>
+  </si>
+  <si>
+    <t>结果截图</t>
+  </si>
+  <si>
+    <t>用例级别</t>
   </si>
   <si>
     <t>迭代</t>
@@ -59,6 +456,9 @@
     <t>前置条件</t>
   </si>
   <si>
+    <t>归属目录</t>
+  </si>
+  <si>
     <t>测试步骤1</t>
   </si>
   <si>
@@ -71,46 +471,407 @@
     <t>预期结果2</t>
   </si>
   <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>是否通过</t>
-  </si>
-  <si>
-    <t>核注清单进口-判断申报要素出口享惠情况</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>shudalong_lab</t>
+    <t>测试步骤3</t>
+  </si>
+  <si>
+    <t>预期结果3</t>
+  </si>
+  <si>
+    <t>测试步骤4</t>
+  </si>
+  <si>
+    <t>预期结果4</t>
+  </si>
+  <si>
+    <t>测试步骤5</t>
+  </si>
+  <si>
+    <t>预期结果5</t>
+  </si>
+  <si>
+    <t>测试步骤6</t>
+  </si>
+  <si>
+    <t>新建进口转关单表头</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>迭代1</t>
-  </si>
-  <si>
-    <t>核注清单</t>
-  </si>
-  <si>
-    <t>当核注清单为进口、报关单类型为进口时，出口享惠情况为：3-不适用于进口报关单</t>
-  </si>
-  <si>
-    <t>进入主页，点击核注清单进口</t>
-  </si>
-  <si>
-    <t>在核注清单进口上传报关单类型为：进口的核注清单</t>
-  </si>
-  <si>
-    <t>出口享惠情况为：3-不适用于进口报关单</t>
-  </si>
-  <si>
-    <t>正常</t>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>转关单</t>
+  </si>
+  <si>
+    <t>登录系统</t>
+  </si>
+  <si>
+    <t>进口转关单制单</t>
+  </si>
+  <si>
+    <t>点击【货物申报】，点击【转关单】</t>
+  </si>
+  <si>
+    <t>展开【转关单】列表</t>
+  </si>
+  <si>
+    <t>点击【进口转关单制单】</t>
+  </si>
+  <si>
+    <t>进入制单列表</t>
+  </si>
+  <si>
+    <t>在【报关单表头】输入表头信息【申报地海关、进出口岸、申报单位等】数据，点击暂存</t>
+  </si>
+  <si>
+    <t>保存成功，并生成转关单</t>
+  </si>
+  <si>
+    <t>只输入必填字段，进口新建转关单表头</t>
+  </si>
+  <si>
+    <t>在【报关单表头】只输入表头的必填字段，点击保存</t>
+  </si>
+  <si>
+    <t>不输入必填字段，新建进口转关单表头</t>
+  </si>
+  <si>
+    <t>在【报关单表头】不输入表头的必填字段中的一个或者多个，只输入非必填字段点击保存</t>
+  </si>
+  <si>
+    <t>提示必填字段“不可为空”</t>
+  </si>
+  <si>
+    <t>不输入表头信息新建进口转关单表头</t>
+  </si>
+  <si>
+    <t>在【报关单表头】不输入表头字段，点击保存</t>
+  </si>
+  <si>
+    <t>修改进口转关单表头</t>
+  </si>
+  <si>
+    <t>登录系统，并存在一单转关单</t>
+  </si>
+  <si>
+    <t>点击需要修改的【转关单】</t>
+  </si>
+  <si>
+    <t>修改转关单表头的所有信息，点击保存</t>
+  </si>
+  <si>
+    <t>保存成功【所有字段修改成功】</t>
+  </si>
+  <si>
+    <t>新建进口提运单信息，并生成转关单</t>
+  </si>
+  <si>
+    <t>在【提运单信息】输入【进出境运输方式、运输工具编号等】信息，点击保存</t>
+  </si>
+  <si>
+    <t>在进口转关单中新建提运单信息</t>
+  </si>
+  <si>
+    <t>点击需要新建【提运单信息】的转关单</t>
+  </si>
+  <si>
+    <t>在该进口转关单中保存成功</t>
+  </si>
+  <si>
+    <t>在进口转关单中修改提运单信息</t>
+  </si>
+  <si>
+    <t>点击需要修改【提运单信息】的转关单</t>
+  </si>
+  <si>
+    <t>修改需要修改的【提运单信息】信息，点击保存</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>将需要修改的【提运单信息】字段全部清空，点击保存</t>
+  </si>
+  <si>
+    <t>在进口转关单中删除提运单信息</t>
+  </si>
+  <si>
+    <t>点击需要删除【提运单信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要删除【提运单信息】，点击删除</t>
+  </si>
+  <si>
+    <t>删除成功【正确排序】</t>
+  </si>
+  <si>
+    <t>在进口转关单中批量删除提运单信息</t>
+  </si>
+  <si>
+    <t>点击需要批量删除【提运单信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要批量删除【提运单信息】，点击删除</t>
+  </si>
+  <si>
+    <t>在进口转关单中复制提运单信息</t>
+  </si>
+  <si>
+    <t>点击需要复制【提运单信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要复制的【提运单信息】信息，点击复制</t>
+  </si>
+  <si>
+    <t>复制成功【正确排序】</t>
+  </si>
+  <si>
+    <t>在进口转关单中批量复制提运单信息</t>
+  </si>
+  <si>
+    <t>点击需要批量复制【提运单信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要批量复制的【提运单信息】，点击复制</t>
+  </si>
+  <si>
+    <t>在进口转关单中修改提运单信息排序</t>
+  </si>
+  <si>
+    <t>点击需要对【提运单信息】排序的转关单</t>
+  </si>
+  <si>
+    <t>选择需要【上移、下移】的【提运单信息】，点击【上移、下移】图标</t>
+  </si>
+  <si>
+    <t>移动成功，并正确排序</t>
+  </si>
+  <si>
+    <t>在进口转关单中新建集装箱信息</t>
+  </si>
+  <si>
+    <t>点击需要新建【集装箱信息】的转关单</t>
+  </si>
+  <si>
+    <t>在【集装箱信息】输入【提运单序号
+、集装箱号等】信息，【提运单序号】在【提运单信息】中存在，点击保存</t>
+  </si>
+  <si>
+    <t>在【集装箱信息】输入【提运单序号
+、集装箱号等】信息，【提运单序号】在【提运单信息】中不存在，点击保存</t>
+  </si>
+  <si>
+    <t>提示【提运单序号】不存在</t>
+  </si>
+  <si>
+    <t>在【集装箱信息】只输入必填字段，且【提运单序号】在【提运单信息】中存在，点击保存</t>
+  </si>
+  <si>
+    <t>在【集装箱信息】只输入非必填字段，点击保存</t>
+  </si>
+  <si>
+    <t>在【集装箱信息】不输入任何字段，点击保存</t>
+  </si>
+  <si>
+    <t>在进口转关单中编辑集装箱信息</t>
+  </si>
+  <si>
+    <t>点击需要编辑【集装箱信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要修改的【集装箱信息】，修改【集装箱信息】字段，且【提运单序号】在【提运单信息】中存在，点击保存</t>
+  </si>
+  <si>
+    <t>选择需要修改的【集装箱信息】，修改【集装箱信息】字段，且【提运单序号】在【提运单信息】中不存在，点击保存</t>
+  </si>
+  <si>
+    <t>选择需要修改的【集装箱信息】，只修改【集装箱信息】必填字段，且【提运单序号】在【提运单信息】中存在，点击保存</t>
+  </si>
+  <si>
+    <t>选择需要修改的【集装箱信息】，将修改【集装箱信息】必填字段置空一个或多个，点击保存</t>
+  </si>
+  <si>
+    <t>选择需要修改的【集装箱信息】，将修改【集装箱信息】非必填字段置空一个或多个，点击保存</t>
+  </si>
+  <si>
+    <t>在进口转关单中复制集装箱信息</t>
+  </si>
+  <si>
+    <t>点击需要复制【集装箱信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要复制的【集装箱信息】，点击复制</t>
+  </si>
+  <si>
+    <t>在进口转关单中批量复制集装箱信息</t>
+  </si>
+  <si>
+    <t>点击需要批量复制【集装箱信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要批量复制的【集装箱信息】，点击复制</t>
+  </si>
+  <si>
+    <t>在进口转关单中删除集装箱信息</t>
+  </si>
+  <si>
+    <t>点击需要删除【集装箱信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要删除的【集装箱信息】，点击删除</t>
+  </si>
+  <si>
+    <t>在进口转关单中批量删除集装箱信息</t>
+  </si>
+  <si>
+    <t>点击需要批量删除【集装箱信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要批量删除的【集装箱信息】，点击删除</t>
+  </si>
+  <si>
+    <t>在进口转关单中对集装箱信息上下排序</t>
+  </si>
+  <si>
+    <t>点击需要上下排序【集装箱信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要排序的【集装箱信息】，点击上下图标</t>
+  </si>
+  <si>
+    <t>上下排序成功【正确排序】</t>
+  </si>
+  <si>
+    <t>在进口转关单中新建商品信息</t>
+  </si>
+  <si>
+    <t>点击需要新建【商品信息】的转关单</t>
+  </si>
+  <si>
+    <t>在【商品信息】输入【提运单序号
+、商品编码等】信息，【提运单序号】在【提运单信息】中存在，点击保存</t>
+  </si>
+  <si>
+    <t>新建成功</t>
+  </si>
+  <si>
+    <t>在【商品信息】输入【提运单序号
+、商品编码等】信息，【提运单序号】在【提运单信息】中不存在，点击保存</t>
+  </si>
+  <si>
+    <t>在【商品信息】只输入必填字段，且【提运单序号】在【提运单信息】中存在，点击保存</t>
+  </si>
+  <si>
+    <t>在【商品信息】不输入任何信息，点击保存</t>
+  </si>
+  <si>
+    <t>在【商品信息】只输入非必填字段，点击保存</t>
+  </si>
+  <si>
+    <t>在进口转关单中修改商品信息</t>
+  </si>
+  <si>
+    <t>点击需要修改【商品信息】的转关单</t>
+  </si>
+  <si>
+    <t>编辑需要修改的【商品信息】字段，点击保存</t>
+  </si>
+  <si>
+    <t>将需要修改的【商品信息】字段全部置空，点击保存</t>
+  </si>
+  <si>
+    <t>将需要修改的【商品信息】非必填字段全部置空，点击保存</t>
+  </si>
+  <si>
+    <t>将需要修改的【商品信息】必填字段全部置空，点击保存</t>
+  </si>
+  <si>
+    <t>在进口转关单中复制商品信息</t>
+  </si>
+  <si>
+    <t>点击需要复制【商品信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要复制的【商品信息】，点击复制</t>
+  </si>
+  <si>
+    <t>在进口转关单中批量复制商品信息</t>
+  </si>
+  <si>
+    <t>点击需要批量复制【商品信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要批量复制的【商品信息】，点击复制</t>
+  </si>
+  <si>
+    <t>在进口转关单中删除商品信息</t>
+  </si>
+  <si>
+    <t>点击需要删除【商品信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要删除的【商品信息】，点击删除</t>
+  </si>
+  <si>
+    <t>在进口转关单中批量删除商品信息</t>
+  </si>
+  <si>
+    <t>点击需要批量删除【商品信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要批量删除的【商品信息】，点击复制</t>
+  </si>
+  <si>
+    <t>在进口转关单中对商品信息上下排序</t>
+  </si>
+  <si>
+    <t>点击需要上下排序【商品信息】的转关单</t>
+  </si>
+  <si>
+    <t>选择需要上下排序的【商品信息】，点击上下排序图标</t>
+  </si>
+  <si>
+    <t>在进口转关单中新增集装箱商品关联信息</t>
+  </si>
+  <si>
+    <t>点击需要新增【集装箱商品关联信息】的转关单</t>
+  </si>
+  <si>
+    <t>在【集装箱商品关联信息】输入【提运单序号、集装箱序号、商品序号等】信息，【提运单序号、集装箱序号、商品序号】在【转关单】中都存在且都能够关联，点击保存</t>
+  </si>
+  <si>
+    <t>在【集装箱商品关联信息】输入【提运单序号、集装箱序号、商品序号等】信息，【提运单序号、集装箱序号、商品序号】在【转关单】中都存在但不能够关联，点击保存</t>
+  </si>
+  <si>
+    <t>【提运单序号、集装箱序号、商品序号】那两个数据不能关联就提示那两个字段</t>
+  </si>
+  <si>
+    <t>在【集装箱商品关联信息】只输入必填字段，【提运单序号、集装箱序号、商品序号】在【转关单】中都存在并能够关联，点击保存</t>
+  </si>
+  <si>
+    <t>在【集装箱商品关联信息】只输入必填字段，【提运单序号、集装箱序号、商品序号】在【转关单】中都存在但不能够关联，点击保存</t>
+  </si>
+  <si>
+    <t>在【集装箱商品关联信息】只输入非必填字段，点击保存</t>
+  </si>
+  <si>
+    <t>在进口转关单中编辑集装箱商品关联信息</t>
+  </si>
+  <si>
+    <t>点击需要编辑【集装箱商品关联信息】的转关单</t>
+  </si>
+  <si>
+    <t>编辑需要修改的【集装箱商品关联信息】字段，修改后【提运单序号、集装箱序号、商品序号】在【转关单】中都存在且能够关联，点击保存</t>
+  </si>
+  <si>
+    <t>编辑需要修改的【集装箱商品关联信息】字段，编辑后【提运单序号、集装箱序号、商品序号】在【转关单】中都存在但不能够关联，点击保存</t>
+  </si>
+  <si>
+    <t>【提运单序号、集装箱序号、商品序号】中哪那两个数据不能关联就提示那两个字段</t>
+  </si>
+  <si>
+    <t>将需要修改的【集装箱商品关联信息】字段全部置空，点击保存</t>
   </si>
 </sst>
 </file>
@@ -119,11 +880,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,35 +894,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -171,9 +926,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,36 +942,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +964,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,53 +1057,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,7 +1109,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,55 +1277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,79 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,42 +1301,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -513,36 +1318,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -560,36 +1335,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +1372,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -653,15 +1422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -681,183 +1441,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -912,6 +1669,28 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1208,139 +1987,3181 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="11.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="17.5555555555556" customWidth="1"/>
-    <col min="12" max="12" width="23.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="7.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="6.11111111111111" customWidth="1"/>
+    <col min="6" max="6" width="5.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="5.88888888888889" customWidth="1"/>
+    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
+    <col min="9" max="9" width="7.22222222222222" customWidth="1"/>
+    <col min="10" max="10" width="6.11111111111111" customWidth="1"/>
+    <col min="11" max="11" width="6.22222222222222" customWidth="1"/>
+    <col min="12" max="12" width="9.55555555555556" customWidth="1"/>
     <col min="13" max="13" width="12.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="14.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="13.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="20.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="43.95" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="108.5" customHeight="1" spans="1:25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="77" customHeight="1" spans="1:25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="78" spans="1:17">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="77" customHeight="1" spans="1:16">
-      <c r="A3" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" ht="72" spans="1:25">
+      <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="B3" s="8">
+        <f>ROW()+9998</f>
+        <v>10001</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="10" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="N3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="43.2" spans="1:25">
+      <c r="A4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8">
+        <f>ROW()+9998</f>
+        <v>10002</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="72" spans="1:25">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="8">
+        <f>ROW()+9998</f>
+        <v>10003</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="43.2" spans="1:25">
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" ref="B6:B15" si="0">ROW()+9998</f>
+        <v>10004</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+    </row>
+    <row r="7" ht="57.6" spans="1:25">
+      <c r="A7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>10005</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+    </row>
+    <row r="8" ht="57.6" spans="1:25">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>10006</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+    </row>
+    <row r="9" ht="57.6" spans="1:25">
+      <c r="A9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>10007</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" ht="43.2" spans="1:25">
+      <c r="A10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>10008</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+    </row>
+    <row r="11" ht="43.2" spans="1:25">
+      <c r="A11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>10009</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+    </row>
+    <row r="12" ht="43.2" spans="1:25">
+      <c r="A12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>10010</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" ht="57.6" spans="1:25">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>10011</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" ht="43.2" spans="1:25">
+      <c r="A14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>10012</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" ht="57.6" spans="1:25">
+      <c r="A15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>10013</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+    </row>
+    <row r="16" ht="57.6" spans="1:25">
+      <c r="A16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" ref="B16:B30" si="1">ROW()+9998</f>
+        <v>10014</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" ht="86.4" spans="1:25">
+      <c r="A17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="1"/>
+        <v>10015</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" ht="86.4" spans="1:25">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="1"/>
+        <v>10016</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="19" ht="72" spans="1:25">
+      <c r="A19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="1"/>
+        <v>10017</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" ht="43.2" spans="1:25">
+      <c r="A20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="1"/>
+        <v>10018</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+    </row>
+    <row r="21" ht="43.2" spans="1:25">
+      <c r="A21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="1"/>
+        <v>10019</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+    </row>
+    <row r="22" ht="86.4" spans="1:25">
+      <c r="A22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="1"/>
+        <v>10020</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+    </row>
+    <row r="23" ht="86.4" spans="1:25">
+      <c r="A23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="1"/>
+        <v>10021</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" ht="86.4" spans="1:25">
+      <c r="A24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="1"/>
+        <v>10022</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" ht="72" spans="1:25">
+      <c r="A25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="1"/>
+        <v>10023</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" ht="72" spans="1:25">
+      <c r="A26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="1"/>
+        <v>10024</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+    </row>
+    <row r="27" ht="43.2" spans="1:25">
+      <c r="A27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="1"/>
+        <v>10025</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" ht="57.6" spans="1:25">
+      <c r="A28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="1"/>
+        <v>10026</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+    </row>
+    <row r="29" ht="43.2" spans="1:25">
+      <c r="A29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="1"/>
+        <v>10027</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" ht="57.6" spans="1:25">
+      <c r="A30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="1"/>
+        <v>10028</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" ht="57.6" spans="1:25">
+      <c r="A31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" ref="B31:B37" si="2">ROW()+9998</f>
+        <v>10029</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" ht="86.4" spans="1:25">
+      <c r="A32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="2"/>
+        <v>10030</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" ht="86.4" spans="1:25">
+      <c r="A33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="2"/>
+        <v>10031</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" ht="72" spans="1:25">
+      <c r="A34" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="8">
+        <f t="shared" si="2"/>
+        <v>10032</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" ht="43.2" spans="1:25">
+      <c r="A35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="8">
+        <f t="shared" si="2"/>
+        <v>10033</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" ht="43.2" spans="1:25">
+      <c r="A36" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="8">
+        <f t="shared" si="2"/>
+        <v>10034</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" ht="43.2" spans="1:25">
+      <c r="A37" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="8">
+        <f t="shared" si="2"/>
+        <v>10035</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" ht="43.2" spans="1:25">
+      <c r="A38" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" ref="B38:B53" si="3">ROW()+9998</f>
+        <v>10036</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" ht="43.2" spans="1:25">
+      <c r="A39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="8">
+        <f t="shared" si="3"/>
+        <v>10037</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" ht="43.2" spans="1:25">
+      <c r="A40" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="8">
+        <f t="shared" si="3"/>
+        <v>10038</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+    </row>
+    <row r="41" ht="43.2" spans="1:25">
+      <c r="A41" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="8">
+        <f t="shared" si="3"/>
+        <v>10039</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" ht="43.2" spans="1:25">
+      <c r="A42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="8">
+        <f t="shared" si="3"/>
+        <v>10040</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+    </row>
+    <row r="43" ht="43.2" spans="1:25">
+      <c r="A43" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="8">
+        <f t="shared" si="3"/>
+        <v>10041</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+    </row>
+    <row r="44" ht="43.2" spans="1:25">
+      <c r="A44" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="8">
+        <f t="shared" si="3"/>
+        <v>10042</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="T44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+    </row>
+    <row r="45" ht="43.2" spans="1:25">
+      <c r="A45" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="8">
+        <f t="shared" si="3"/>
+        <v>10043</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+    </row>
+    <row r="46" ht="129.6" spans="1:25">
+      <c r="A46" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="8">
+        <f t="shared" si="3"/>
+        <v>10044</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="T46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+    </row>
+    <row r="47" ht="129.6" spans="1:25">
+      <c r="A47" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="8">
+        <f t="shared" si="3"/>
+        <v>10045</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+    </row>
+    <row r="48" ht="100.8" spans="1:25">
+      <c r="A48" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="8">
+        <f t="shared" si="3"/>
+        <v>10046</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+    </row>
+    <row r="49" ht="129.6" spans="1:25">
+      <c r="A49" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="8">
+        <f t="shared" si="3"/>
+        <v>10047</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="T49" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+    </row>
+    <row r="50" ht="57.6" spans="1:25">
+      <c r="A50" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="8">
+        <f t="shared" si="3"/>
+        <v>10048</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="T50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+    </row>
+    <row r="51" ht="100.8" spans="1:25">
+      <c r="A51" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="8">
+        <f t="shared" si="3"/>
+        <v>10049</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="T51" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+    </row>
+    <row r="52" ht="144" spans="1:25">
+      <c r="A52" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="8">
+        <f t="shared" si="3"/>
+        <v>10050</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+    </row>
+    <row r="53" ht="57.6" spans="1:25">
+      <c r="A53" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="8">
+        <f t="shared" si="3"/>
+        <v>10051</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S53" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="T53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+    </row>
+    <row r="54" ht="57.6" spans="1:25">
+      <c r="A54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="8">
+        <f>ROW()+9998</f>
+        <v>10052</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="T54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8">
+        <f t="shared" ref="B48:B61" si="4">ROW()+9998</f>
+        <v>10053</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8">
+        <f t="shared" si="4"/>
+        <v>10054</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8">
+        <f t="shared" si="4"/>
+        <v>10055</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8">
+        <f t="shared" si="4"/>
+        <v>10056</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8">
+        <f t="shared" si="4"/>
+        <v>10057</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8">
+        <f t="shared" si="4"/>
+        <v>10058</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8">
+        <f t="shared" si="4"/>
+        <v>10059</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:W1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"成功"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"失败"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E44 E45 E46 E47 E48 E49 E50 E51 E52 E1:E43 E53:E54 E55:E1048576">
+      <formula1>"成功,失败"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" sqref="F1 F2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D12 D13 D14 D15 D22 D25 D26 D31 D32 D37 D38 D41 D44 D45 D46 D47 D48 D49 D50 D51 D52 D1:D3 D6:D9 D10:D11 D16:D21 D23:D24 D27:D28 D29:D30 D33:D36 D39:D40 D42:D43 D53:D54 D55:D61 D62:D1048576">
+      <formula1>"新建,设计中,测试中,完成"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
